--- a/NameBasesExtracter/bin/Debug/net6.0/1C_basesLists/1C_basesList0.xlsx
+++ b/NameBasesExtracter/bin/Debug/net6.0/1C_basesLists/1C_basesList0.xlsx
@@ -47,7 +47,7 @@
     <t>BL_Golfstrim</t>
   </si>
   <si>
-    <t>Корпорация [р</t>
+    <t>Корпорация [р]</t>
   </si>
   <si>
     <t>BL_Korp</t>
